--- a/biology/Microbiologie/Cycle_des_métaux/Cycle_des_métaux.xlsx
+++ b/biology/Microbiologie/Cycle_des_métaux/Cycle_des_métaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cycle_des_m%C3%A9taux</t>
+          <t>Cycle_des_métaux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article décrit le cycle des métaux, en particulier le cycle du mercure et le cycle du fer.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cycle_des_m%C3%A9taux</t>
+          <t>Cycle_des_métaux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Cycle du mercure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mercure est un métal lourd présent naturellement à l'état de traces dans les roches, les sols et l'eau, et qui, déjà à de très faibles concentrations, présente une toxicité élevée. Le mercure n'est pas un micronutriment nécessaire à l'activité cellulaire, tout comme le plomb, le cadmium, le thallium ou l'arsenic ne le sont pas non plus. Les sources naturelles de mercure sont constituées par le volcanisme et certaines roches ignées. On estime à environ 25 000 t/an la quantité de mercure introduit dans l’atmosphère par le volcanisme. De plus, l’érosion hydrique des roches superficielles entraine dans les cours d’eau puis les océans, une fraction du mercure contenu dans les roches superficielles.
 Le cycle biogéochimique du mercure est caractérisé par un passage alternatif de l’état inorganique à l’état organique, et des formes oxydées à des formes réduites.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cycle_des_m%C3%A9taux</t>
+          <t>Cycle_des_métaux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Cycle du fer</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fer, de symbole Fe, est l’un des éléments les plus abondants de la croûte terrestre.
 Il existe à l’état naturel sous deux formes :
@@ -577,7 +593,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cycle_des_m%C3%A9taux</t>
+          <t>Cycle_des_métaux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -595,7 +611,9 @@
           <t>Effets des métaux lourds sur les micro-organismes et les vertébrés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>À côté de métaux comme le fer et le manganèse, qui ne sont pas toxiques, il y a une série de métaux qui ont divers effets toxiques sur les micro-organismes et les animaux homéothermes (organismes dont le milieu intérieur conserve une température constante indépendamment du milieu extérieur).
 Les micro-organismes jouent des rôles importants en modifiant la toxicité de ces métaux.
